--- a/forms/contact/county-edit.xlsx
+++ b/forms/contact/county-edit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7770" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12930"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="301">
   <si>
     <t>type</t>
   </si>
@@ -276,6 +276,75 @@
     <t>if( ( selected(${is_name_generated}, 'true') or selected(${is_name_generated}, 'yes') ), ${generated_name}, .)</t>
   </si>
   <si>
+    <t>approximate_population</t>
+  </si>
+  <si>
+    <t>Approximate Population size (KM)</t>
+  </si>
+  <si>
+    <t>Approximate Population</t>
+  </si>
+  <si>
+    <t>select_one yes_no_health_facility</t>
+  </si>
+  <si>
+    <t>available_health_facilities</t>
+  </si>
+  <si>
+    <t>Are There Available Health Facilities?</t>
+  </si>
+  <si>
+    <t>columns</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>health_facilities</t>
+  </si>
+  <si>
+    <t>No. of Health facilities</t>
+  </si>
+  <si>
+    <t>selected(${available_health_facilities},'yes')</t>
+  </si>
+  <si>
+    <t>.&gt;=1</t>
+  </si>
+  <si>
+    <t>It must be greater than 1</t>
+  </si>
+  <si>
+    <t>select_one yes_no_natural_park</t>
+  </si>
+  <si>
+    <t>available_natural_park</t>
+  </si>
+  <si>
+    <t>Is There Available Natural parks?</t>
+  </si>
+  <si>
+    <t>natural_park</t>
+  </si>
+  <si>
+    <t>Number Of Natural Parks</t>
+  </si>
+  <si>
+    <t>selected( ${available_natural_park},'yes')</t>
+  </si>
+  <si>
+    <t>select_one yes_no</t>
+  </si>
+  <si>
+    <t>no_natural_park</t>
+  </si>
+  <si>
+    <t>Are there organized plans to have?</t>
+  </si>
+  <si>
+    <t>selected( ${available_natural_park},'no')</t>
+  </si>
+  <si>
     <t>external_id</t>
   </si>
   <si>
@@ -486,10 +555,10 @@
     <t>roles</t>
   </si>
   <si>
-    <t>chw</t>
-  </si>
-  <si>
-    <t>CHW</t>
+    <t>chp</t>
+  </si>
+  <si>
+    <t>CHP</t>
   </si>
   <si>
     <t>सामुदायिक स्वास्थ्य कर्मी</t>
@@ -507,10 +576,10 @@
     <t>ASC</t>
   </si>
   <si>
-    <t>chw_supervisor</t>
-  </si>
-  <si>
-    <t>CHW Supervisor</t>
+    <t>chp_supervisor</t>
+  </si>
+  <si>
+    <t>CHP Supervisor</t>
   </si>
   <si>
     <t>सामुदायिक स्वास्थ्य कर्मी के मैनेजर</t>
@@ -805,6 +874,18 @@
   </si>
   <si>
     <t>Zone de ${contact_name}</t>
+  </si>
+  <si>
+    <t>yes_no_health_facility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">हो </t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes_no_natural_park</t>
   </si>
   <si>
     <t>form_title</t>
@@ -845,10 +926,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -900,6 +981,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -922,8 +1026,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -931,6 +1052,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -946,38 +1075,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -985,13 +1090,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1006,15 +1104,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1027,24 +1124,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="48">
+  <fills count="50">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1061,6 +1142,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FFFCE5CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="65"/>
+        <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1143,7 +1230,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF6FA8DC"/>
+        <bgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1155,7 +1284,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1167,37 +1386,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1209,121 +1410,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1334,6 +1427,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1361,17 +1469,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1390,203 +1527,160 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1617,50 +1711,71 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1934,14 +2049,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL39"/>
+  <dimension ref="A1:AR52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296296296296" defaultRowHeight="15" customHeight="1"/>
@@ -1974,2102 +2089,2562 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" spans="1:38">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="O1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="35" t="s">
+      <c r="Q1" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="35" t="s">
+      <c r="R1" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="S1" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="42" t="s">
+      <c r="T1" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="43" t="s">
+      <c r="U1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="44" t="s">
+      <c r="V1" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="45" t="s">
+      <c r="W1" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="46" t="s">
+      <c r="X1" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="35" t="s">
+      <c r="Y1" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="35" t="s">
+      <c r="Z1" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="45"/>
     </row>
     <row r="2" ht="14.25" customHeight="1" spans="1:38">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38" t="b">
+      <c r="C2" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44" t="b">
         <v>0</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
     </row>
     <row r="3" spans="1:38">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
+      <c r="C3" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:38">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38" t="s">
+      <c r="C4" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="44"/>
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="44"/>
+      <c r="AL4" s="44"/>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:38">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38" t="s">
+      <c r="C5" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="38"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="38"/>
-      <c r="AL5" s="38"/>
+      <c r="AA5" s="44"/>
+      <c r="AB5" s="44"/>
+      <c r="AC5" s="44"/>
+      <c r="AD5" s="44"/>
+      <c r="AE5" s="44"/>
+      <c r="AF5" s="44"/>
+      <c r="AG5" s="44"/>
+      <c r="AH5" s="44"/>
+      <c r="AI5" s="44"/>
+      <c r="AJ5" s="44"/>
+      <c r="AK5" s="44"/>
+      <c r="AL5" s="44"/>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:38">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38" t="s">
+      <c r="C6" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="38"/>
-      <c r="AG6" s="38"/>
-      <c r="AH6" s="38"/>
-      <c r="AI6" s="38"/>
-      <c r="AJ6" s="38"/>
-      <c r="AK6" s="38"/>
-      <c r="AL6" s="38"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="44"/>
+      <c r="AC6" s="44"/>
+      <c r="AD6" s="44"/>
+      <c r="AE6" s="44"/>
+      <c r="AF6" s="44"/>
+      <c r="AG6" s="44"/>
+      <c r="AH6" s="44"/>
+      <c r="AI6" s="44"/>
+      <c r="AJ6" s="44"/>
+      <c r="AK6" s="44"/>
+      <c r="AL6" s="44"/>
     </row>
     <row r="7" spans="1:38">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="38"/>
-      <c r="AF7" s="38"/>
-      <c r="AG7" s="38"/>
-      <c r="AH7" s="38"/>
-      <c r="AI7" s="38"/>
-      <c r="AJ7" s="38"/>
-      <c r="AK7" s="38"/>
-      <c r="AL7" s="38"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="44"/>
+      <c r="AE7" s="44"/>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="44"/>
+      <c r="AH7" s="44"/>
+      <c r="AI7" s="44"/>
+      <c r="AJ7" s="44"/>
+      <c r="AK7" s="44"/>
+      <c r="AL7" s="44"/>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:38">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="38"/>
-      <c r="W8" s="38"/>
-      <c r="X8" s="38"/>
-      <c r="Y8" s="38"/>
-      <c r="Z8" s="38"/>
-      <c r="AA8" s="38"/>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="38"/>
-      <c r="AD8" s="38"/>
-      <c r="AE8" s="38"/>
-      <c r="AF8" s="38"/>
-      <c r="AG8" s="38"/>
-      <c r="AH8" s="38"/>
-      <c r="AI8" s="38"/>
-      <c r="AJ8" s="38"/>
-      <c r="AK8" s="38"/>
-      <c r="AL8" s="38"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="44"/>
+      <c r="AE8" s="44"/>
+      <c r="AF8" s="44"/>
+      <c r="AG8" s="44"/>
+      <c r="AH8" s="44"/>
+      <c r="AI8" s="44"/>
+      <c r="AJ8" s="44"/>
+      <c r="AK8" s="44"/>
+      <c r="AL8" s="44"/>
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="1:38">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="39"/>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="39"/>
-      <c r="AF9" s="39"/>
-      <c r="AG9" s="39"/>
-      <c r="AH9" s="39"/>
-      <c r="AI9" s="39"/>
-      <c r="AJ9" s="39"/>
-      <c r="AK9" s="39"/>
-      <c r="AL9" s="39"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="45"/>
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="45"/>
+      <c r="AG9" s="45"/>
+      <c r="AH9" s="45"/>
+      <c r="AI9" s="45"/>
+      <c r="AJ9" s="45"/>
+      <c r="AK9" s="45"/>
+      <c r="AL9" s="45"/>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:38">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33" t="s">
+      <c r="C10" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="33"/>
-      <c r="AD10" s="33"/>
-      <c r="AE10" s="33"/>
-      <c r="AF10" s="33"/>
-      <c r="AG10" s="33"/>
-      <c r="AH10" s="33"/>
-      <c r="AI10" s="33"/>
-      <c r="AJ10" s="33"/>
-      <c r="AK10" s="33"/>
-      <c r="AL10" s="33"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="39"/>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="39"/>
+      <c r="AF10" s="39"/>
+      <c r="AG10" s="39"/>
+      <c r="AH10" s="39"/>
+      <c r="AI10" s="39"/>
+      <c r="AJ10" s="39"/>
+      <c r="AK10" s="39"/>
+      <c r="AL10" s="39"/>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:38">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33" t="s">
+      <c r="C11" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="33"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="33"/>
-      <c r="AD11" s="33"/>
-      <c r="AE11" s="33"/>
-      <c r="AF11" s="33"/>
-      <c r="AG11" s="33"/>
-      <c r="AH11" s="33"/>
-      <c r="AI11" s="33"/>
-      <c r="AJ11" s="33"/>
-      <c r="AK11" s="33"/>
-      <c r="AL11" s="33"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="39"/>
+      <c r="AF11" s="39"/>
+      <c r="AG11" s="39"/>
+      <c r="AH11" s="39"/>
+      <c r="AI11" s="39"/>
+      <c r="AJ11" s="39"/>
+      <c r="AK11" s="39"/>
+      <c r="AL11" s="39"/>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:38">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33" t="s">
+      <c r="C12" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="33"/>
-      <c r="AB12" s="33"/>
-      <c r="AC12" s="33"/>
-      <c r="AD12" s="33"/>
-      <c r="AE12" s="33"/>
-      <c r="AF12" s="33"/>
-      <c r="AG12" s="33"/>
-      <c r="AH12" s="33"/>
-      <c r="AI12" s="33"/>
-      <c r="AJ12" s="33"/>
-      <c r="AK12" s="33"/>
-      <c r="AL12" s="33"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="39"/>
+      <c r="AE12" s="39"/>
+      <c r="AF12" s="39"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="39"/>
+      <c r="AI12" s="39"/>
+      <c r="AJ12" s="39"/>
+      <c r="AK12" s="39"/>
+      <c r="AL12" s="39"/>
     </row>
     <row r="13" ht="14.25" customHeight="1" spans="1:38">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="33" t="s">
+      <c r="C13" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="AA13" s="33"/>
-      <c r="AB13" s="33"/>
-      <c r="AC13" s="33"/>
-      <c r="AD13" s="33"/>
-      <c r="AE13" s="33"/>
-      <c r="AF13" s="33"/>
-      <c r="AG13" s="33"/>
-      <c r="AH13" s="33"/>
-      <c r="AI13" s="33"/>
-      <c r="AJ13" s="33"/>
-      <c r="AK13" s="33"/>
-      <c r="AL13" s="33"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="39"/>
+      <c r="AF13" s="39"/>
+      <c r="AG13" s="39"/>
+      <c r="AH13" s="39"/>
+      <c r="AI13" s="39"/>
+      <c r="AJ13" s="39"/>
+      <c r="AK13" s="39"/>
+      <c r="AL13" s="39"/>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="1:38">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33" t="s">
+      <c r="C14" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="33"/>
-      <c r="AD14" s="33"/>
-      <c r="AE14" s="33"/>
-      <c r="AF14" s="33"/>
-      <c r="AG14" s="33"/>
-      <c r="AH14" s="33"/>
-      <c r="AI14" s="33"/>
-      <c r="AJ14" s="33"/>
-      <c r="AK14" s="33"/>
-      <c r="AL14" s="33"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="39"/>
+      <c r="AA14" s="39"/>
+      <c r="AB14" s="39"/>
+      <c r="AC14" s="39"/>
+      <c r="AD14" s="39"/>
+      <c r="AE14" s="39"/>
+      <c r="AF14" s="39"/>
+      <c r="AG14" s="39"/>
+      <c r="AH14" s="39"/>
+      <c r="AI14" s="39"/>
+      <c r="AJ14" s="39"/>
+      <c r="AK14" s="39"/>
+      <c r="AL14" s="39"/>
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="1:38">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33" t="s">
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33" t="s">
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="33"/>
-      <c r="AC15" s="33"/>
-      <c r="AD15" s="33"/>
-      <c r="AE15" s="33"/>
-      <c r="AF15" s="33"/>
-      <c r="AG15" s="33"/>
-      <c r="AH15" s="33"/>
-      <c r="AI15" s="33"/>
-      <c r="AJ15" s="33"/>
-      <c r="AK15" s="33"/>
-      <c r="AL15" s="33"/>
+      <c r="AA15" s="39"/>
+      <c r="AB15" s="39"/>
+      <c r="AC15" s="39"/>
+      <c r="AD15" s="39"/>
+      <c r="AE15" s="39"/>
+      <c r="AF15" s="39"/>
+      <c r="AG15" s="39"/>
+      <c r="AH15" s="39"/>
+      <c r="AI15" s="39"/>
+      <c r="AJ15" s="39"/>
+      <c r="AK15" s="39"/>
+      <c r="AL15" s="39"/>
     </row>
     <row r="16" ht="14.25" customHeight="1" spans="1:38">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33" t="s">
+      <c r="H16" s="39"/>
+      <c r="I16" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33" t="s">
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33" t="s">
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="S16" s="33" t="s">
+      <c r="S16" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="T16" s="33" t="s">
+      <c r="T16" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="U16" s="33" t="s">
+      <c r="U16" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="V16" s="33" t="s">
+      <c r="V16" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33" t="s">
+      <c r="W16" s="39"/>
+      <c r="X16" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="33"/>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="33"/>
-      <c r="AD16" s="33"/>
-      <c r="AE16" s="33"/>
-      <c r="AF16" s="33"/>
-      <c r="AG16" s="33"/>
-      <c r="AH16" s="33"/>
-      <c r="AI16" s="33"/>
-      <c r="AJ16" s="33"/>
-      <c r="AK16" s="33"/>
-      <c r="AL16" s="33"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="39"/>
+      <c r="AA16" s="39"/>
+      <c r="AB16" s="39"/>
+      <c r="AC16" s="39"/>
+      <c r="AD16" s="39"/>
+      <c r="AE16" s="39"/>
+      <c r="AF16" s="39"/>
+      <c r="AG16" s="39"/>
+      <c r="AH16" s="39"/>
+      <c r="AI16" s="39"/>
+      <c r="AJ16" s="39"/>
+      <c r="AK16" s="39"/>
+      <c r="AL16" s="39"/>
     </row>
     <row r="17" ht="14.25" customHeight="1" spans="1:38">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="33"/>
-      <c r="AB17" s="33"/>
-      <c r="AC17" s="33"/>
-      <c r="AD17" s="33"/>
-      <c r="AE17" s="33"/>
-      <c r="AF17" s="33"/>
-      <c r="AG17" s="33"/>
-      <c r="AH17" s="33"/>
-      <c r="AI17" s="33"/>
-      <c r="AJ17" s="33"/>
-      <c r="AK17" s="33"/>
-      <c r="AL17" s="33"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="39"/>
+      <c r="AB17" s="39"/>
+      <c r="AC17" s="39"/>
+      <c r="AD17" s="39"/>
+      <c r="AE17" s="39"/>
+      <c r="AF17" s="39"/>
+      <c r="AG17" s="39"/>
+      <c r="AH17" s="39"/>
+      <c r="AI17" s="39"/>
+      <c r="AJ17" s="39"/>
+      <c r="AK17" s="39"/>
+      <c r="AL17" s="39"/>
     </row>
     <row r="18" ht="14.25" customHeight="1" spans="1:38">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33" t="s">
+      <c r="H18" s="39"/>
+      <c r="I18" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="J18" s="33" t="s">
+      <c r="J18" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="K18" s="33" t="s">
+      <c r="K18" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="L18" s="33" t="s">
+      <c r="L18" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="M18" s="41" t="s">
+      <c r="M18" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="41" t="s">
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="41" t="s">
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="39"/>
+      <c r="X18" s="39"/>
+      <c r="Y18" s="39"/>
+      <c r="Z18" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="AA18" s="33"/>
-      <c r="AB18" s="33"/>
-      <c r="AC18" s="33"/>
-      <c r="AD18" s="33"/>
-      <c r="AE18" s="33"/>
-      <c r="AF18" s="33"/>
-      <c r="AG18" s="33"/>
-      <c r="AH18" s="33"/>
-      <c r="AI18" s="33"/>
-      <c r="AJ18" s="33"/>
-      <c r="AK18" s="33"/>
-      <c r="AL18" s="33"/>
-    </row>
-    <row r="19" ht="14.25" customHeight="1" spans="1:38">
-      <c r="A19" s="40" t="s">
+      <c r="AA18" s="39"/>
+      <c r="AB18" s="39"/>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="39"/>
+      <c r="AE18" s="39"/>
+      <c r="AF18" s="39"/>
+      <c r="AG18" s="39"/>
+      <c r="AH18" s="39"/>
+      <c r="AI18" s="39"/>
+      <c r="AJ18" s="39"/>
+      <c r="AK18" s="39"/>
+      <c r="AL18" s="39"/>
+    </row>
+    <row r="20" ht="14.25" customHeight="1" spans="1:38">
+      <c r="A20" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B20" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33" t="s">
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="33"/>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="33"/>
-      <c r="AD19" s="33"/>
-      <c r="AE19" s="33"/>
-      <c r="AF19" s="33"/>
-      <c r="AG19" s="33"/>
-      <c r="AH19" s="33"/>
-      <c r="AI19" s="33"/>
-      <c r="AJ19" s="33"/>
-      <c r="AK19" s="33"/>
-      <c r="AL19" s="33"/>
-    </row>
-    <row r="20" ht="14.25" customHeight="1" spans="1:38">
-      <c r="A20" s="40" t="s">
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="39"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="39"/>
+      <c r="AA20" s="39"/>
+      <c r="AB20" s="39"/>
+      <c r="AC20" s="39"/>
+      <c r="AD20" s="39"/>
+      <c r="AE20" s="39"/>
+      <c r="AF20" s="39"/>
+      <c r="AG20" s="39"/>
+      <c r="AH20" s="39"/>
+      <c r="AI20" s="39"/>
+      <c r="AJ20" s="39"/>
+      <c r="AK20" s="39"/>
+      <c r="AL20" s="39"/>
+    </row>
+    <row r="21" ht="14.25" customHeight="1" spans="1:38">
+      <c r="A21" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B21" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C21" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D21" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E21" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F21" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G21" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33" t="s">
+      <c r="H21" s="39"/>
+      <c r="I21" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="J20" s="33" t="s">
+      <c r="J21" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="K20" s="33" t="s">
+      <c r="K21" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="41" t="s">
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="33"/>
-      <c r="AB20" s="33"/>
-      <c r="AC20" s="33"/>
-      <c r="AD20" s="33"/>
-      <c r="AE20" s="33"/>
-      <c r="AF20" s="33"/>
-      <c r="AG20" s="33"/>
-      <c r="AH20" s="33"/>
-      <c r="AI20" s="33"/>
-      <c r="AJ20" s="33"/>
-      <c r="AK20" s="33"/>
-      <c r="AL20" s="33"/>
-    </row>
-    <row r="21" ht="14.25" customHeight="1" spans="1:38">
-      <c r="A21" s="40" t="s">
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="39"/>
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="39"/>
+      <c r="AD21" s="39"/>
+      <c r="AE21" s="39"/>
+      <c r="AF21" s="39"/>
+      <c r="AG21" s="39"/>
+      <c r="AH21" s="39"/>
+      <c r="AI21" s="39"/>
+      <c r="AJ21" s="39"/>
+      <c r="AK21" s="39"/>
+      <c r="AL21" s="39"/>
+    </row>
+    <row r="22" s="4" customFormat="1" ht="14.25" customHeight="1" spans="1:44">
+      <c r="A22" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B22" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C22" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D22" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E22" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="48"/>
+      <c r="X22" s="48"/>
+      <c r="Y22" s="48"/>
+      <c r="Z22" s="48"/>
+      <c r="AA22" s="48"/>
+      <c r="AB22" s="48"/>
+      <c r="AC22" s="48"/>
+      <c r="AD22" s="48"/>
+      <c r="AE22" s="48"/>
+      <c r="AF22" s="48"/>
+      <c r="AG22" s="48"/>
+      <c r="AH22" s="48"/>
+      <c r="AI22" s="48"/>
+      <c r="AJ22" s="48"/>
+      <c r="AK22" s="48"/>
+      <c r="AL22" s="48"/>
+      <c r="AM22" s="48"/>
+      <c r="AN22" s="48"/>
+      <c r="AO22" s="48"/>
+      <c r="AP22" s="48"/>
+      <c r="AQ22" s="48"/>
+      <c r="AR22" s="48"/>
+    </row>
+    <row r="23" s="4" customFormat="1" ht="14.25" customHeight="1" spans="1:44">
+      <c r="A23" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="B23" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="C23" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="47" t="s">
+      <c r="D23" s="49"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="33"/>
-      <c r="AB21" s="33"/>
-      <c r="AC21" s="33"/>
-      <c r="AD21" s="33"/>
-      <c r="AE21" s="33"/>
-      <c r="AF21" s="33"/>
-      <c r="AG21" s="33"/>
-      <c r="AH21" s="33"/>
-      <c r="AI21" s="33"/>
-      <c r="AJ21" s="33"/>
-      <c r="AK21" s="33"/>
-      <c r="AL21" s="33"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1" spans="1:38">
-      <c r="A22" s="40" t="s">
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="48"/>
+      <c r="X23" s="48"/>
+      <c r="Y23" s="48"/>
+      <c r="Z23" s="48"/>
+      <c r="AA23" s="48"/>
+      <c r="AB23" s="48"/>
+      <c r="AC23" s="48"/>
+      <c r="AD23" s="48"/>
+      <c r="AE23" s="48"/>
+      <c r="AF23" s="48"/>
+      <c r="AG23" s="48"/>
+      <c r="AH23" s="48"/>
+      <c r="AI23" s="48"/>
+      <c r="AJ23" s="48"/>
+      <c r="AK23" s="48"/>
+      <c r="AL23" s="48"/>
+      <c r="AM23" s="48"/>
+      <c r="AN23" s="48"/>
+      <c r="AO23" s="48"/>
+      <c r="AP23" s="48"/>
+      <c r="AQ23" s="48"/>
+      <c r="AR23" s="48"/>
+    </row>
+    <row r="24" s="4" customFormat="1" ht="14.25" customHeight="1" spans="1:44">
+      <c r="A24" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="49"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="O24" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="48"/>
+      <c r="W24" s="48"/>
+      <c r="X24" s="48"/>
+      <c r="Y24" s="48"/>
+      <c r="Z24" s="48"/>
+      <c r="AA24" s="48"/>
+      <c r="AB24" s="48"/>
+      <c r="AC24" s="48"/>
+      <c r="AD24" s="48"/>
+      <c r="AE24" s="48"/>
+      <c r="AF24" s="48"/>
+      <c r="AG24" s="48"/>
+      <c r="AH24" s="48"/>
+      <c r="AI24" s="48"/>
+      <c r="AJ24" s="48"/>
+      <c r="AK24" s="48"/>
+      <c r="AL24" s="48"/>
+      <c r="AM24" s="48"/>
+      <c r="AN24" s="48"/>
+      <c r="AO24" s="48"/>
+      <c r="AP24" s="48"/>
+      <c r="AQ24" s="48"/>
+      <c r="AR24" s="48"/>
+    </row>
+    <row r="25" s="4" customFormat="1" ht="14.25" customHeight="1" spans="1:44">
+      <c r="A25" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="49"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="48"/>
+      <c r="Z25" s="48"/>
+      <c r="AA25" s="48"/>
+      <c r="AB25" s="48"/>
+      <c r="AC25" s="48"/>
+      <c r="AD25" s="48"/>
+      <c r="AE25" s="48"/>
+      <c r="AF25" s="48"/>
+      <c r="AG25" s="48"/>
+      <c r="AH25" s="48"/>
+      <c r="AI25" s="48"/>
+      <c r="AJ25" s="48"/>
+      <c r="AK25" s="48"/>
+      <c r="AL25" s="48"/>
+      <c r="AM25" s="48"/>
+      <c r="AN25" s="48"/>
+      <c r="AO25" s="48"/>
+      <c r="AP25" s="48"/>
+      <c r="AQ25" s="48"/>
+      <c r="AR25" s="48"/>
+    </row>
+    <row r="26" s="4" customFormat="1" ht="14.25" customHeight="1" spans="1:44">
+      <c r="A26" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="O26" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="48"/>
+      <c r="X26" s="48"/>
+      <c r="Y26" s="48"/>
+      <c r="Z26" s="48"/>
+      <c r="AA26" s="48"/>
+      <c r="AB26" s="48"/>
+      <c r="AC26" s="48"/>
+      <c r="AD26" s="48"/>
+      <c r="AE26" s="48"/>
+      <c r="AF26" s="48"/>
+      <c r="AG26" s="48"/>
+      <c r="AH26" s="48"/>
+      <c r="AI26" s="48"/>
+      <c r="AJ26" s="48"/>
+      <c r="AK26" s="48"/>
+      <c r="AL26" s="48"/>
+      <c r="AM26" s="48"/>
+      <c r="AN26" s="48"/>
+      <c r="AO26" s="48"/>
+      <c r="AP26" s="48"/>
+      <c r="AQ26" s="48"/>
+      <c r="AR26" s="48"/>
+    </row>
+    <row r="27" s="4" customFormat="1" ht="14.25" customHeight="1" spans="1:44">
+      <c r="A27" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="48"/>
+      <c r="W27" s="48"/>
+      <c r="X27" s="48"/>
+      <c r="Y27" s="48"/>
+      <c r="Z27" s="48"/>
+      <c r="AA27" s="48"/>
+      <c r="AB27" s="48"/>
+      <c r="AC27" s="48"/>
+      <c r="AD27" s="48"/>
+      <c r="AE27" s="48"/>
+      <c r="AF27" s="48"/>
+      <c r="AG27" s="48"/>
+      <c r="AH27" s="48"/>
+      <c r="AI27" s="48"/>
+      <c r="AJ27" s="48"/>
+      <c r="AK27" s="48"/>
+      <c r="AL27" s="48"/>
+      <c r="AM27" s="48"/>
+      <c r="AN27" s="48"/>
+      <c r="AO27" s="48"/>
+      <c r="AP27" s="48"/>
+      <c r="AQ27" s="48"/>
+      <c r="AR27" s="48"/>
+    </row>
+    <row r="28" ht="14.25" customHeight="1" spans="1:38">
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="39"/>
+      <c r="AA28" s="39"/>
+      <c r="AB28" s="39"/>
+      <c r="AC28" s="39"/>
+      <c r="AD28" s="39"/>
+      <c r="AE28" s="39"/>
+      <c r="AF28" s="39"/>
+      <c r="AG28" s="39"/>
+      <c r="AH28" s="39"/>
+      <c r="AI28" s="39"/>
+      <c r="AJ28" s="39"/>
+      <c r="AK28" s="39"/>
+      <c r="AL28" s="39"/>
+    </row>
+    <row r="29" customFormat="1" ht="14.25" customHeight="1" spans="1:38">
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="39"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="39"/>
+      <c r="X29" s="39"/>
+      <c r="Y29" s="39"/>
+      <c r="Z29" s="50"/>
+      <c r="AA29" s="39"/>
+      <c r="AB29" s="39"/>
+      <c r="AC29" s="39"/>
+      <c r="AD29" s="39"/>
+      <c r="AE29" s="39"/>
+      <c r="AF29" s="39"/>
+      <c r="AG29" s="39"/>
+      <c r="AH29" s="39"/>
+      <c r="AI29" s="39"/>
+      <c r="AJ29" s="39"/>
+      <c r="AK29" s="39"/>
+      <c r="AL29" s="39"/>
+    </row>
+    <row r="30" ht="14.25" customHeight="1" spans="1:38">
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="39"/>
+      <c r="X30" s="39"/>
+      <c r="Y30" s="39"/>
+      <c r="Z30" s="39"/>
+      <c r="AA30" s="39"/>
+      <c r="AB30" s="39"/>
+      <c r="AC30" s="39"/>
+      <c r="AD30" s="39"/>
+      <c r="AE30" s="39"/>
+      <c r="AF30" s="39"/>
+      <c r="AG30" s="39"/>
+      <c r="AH30" s="39"/>
+      <c r="AI30" s="39"/>
+      <c r="AJ30" s="39"/>
+      <c r="AK30" s="39"/>
+      <c r="AL30" s="39"/>
+    </row>
+    <row r="34" ht="14.25" customHeight="1" spans="1:38">
+      <c r="A34" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B34" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="G34" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="H34" s="39"/>
+      <c r="I34" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="39"/>
+      <c r="T34" s="39"/>
+      <c r="U34" s="39"/>
+      <c r="V34" s="39"/>
+      <c r="W34" s="39"/>
+      <c r="X34" s="39"/>
+      <c r="Y34" s="39"/>
+      <c r="Z34" s="39"/>
+      <c r="AA34" s="39"/>
+      <c r="AB34" s="39"/>
+      <c r="AC34" s="39"/>
+      <c r="AD34" s="39"/>
+      <c r="AE34" s="39"/>
+      <c r="AF34" s="39"/>
+      <c r="AG34" s="39"/>
+      <c r="AH34" s="39"/>
+      <c r="AI34" s="39"/>
+      <c r="AJ34" s="39"/>
+      <c r="AK34" s="39"/>
+      <c r="AL34" s="39"/>
+    </row>
+    <row r="35" ht="14.25" customHeight="1" spans="1:38">
+      <c r="A35" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="33"/>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="33"/>
-      <c r="AB22" s="33"/>
-      <c r="AC22" s="33"/>
-      <c r="AD22" s="33"/>
-      <c r="AE22" s="33"/>
-      <c r="AF22" s="33"/>
-      <c r="AG22" s="33"/>
-      <c r="AH22" s="33"/>
-      <c r="AI22" s="33"/>
-      <c r="AJ22" s="33"/>
-      <c r="AK22" s="33"/>
-      <c r="AL22" s="33"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1" spans="1:38">
-      <c r="A23" s="40" t="s">
+      <c r="C35" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="F35" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="G35" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="39"/>
+      <c r="W35" s="39"/>
+      <c r="X35" s="39"/>
+      <c r="Y35" s="39"/>
+      <c r="Z35" s="39"/>
+      <c r="AA35" s="39"/>
+      <c r="AB35" s="39"/>
+      <c r="AC35" s="39"/>
+      <c r="AD35" s="39"/>
+      <c r="AE35" s="39"/>
+      <c r="AF35" s="39"/>
+      <c r="AG35" s="39"/>
+      <c r="AH35" s="39"/>
+      <c r="AI35" s="39"/>
+      <c r="AJ35" s="39"/>
+      <c r="AK35" s="39"/>
+      <c r="AL35" s="39"/>
+    </row>
+    <row r="36" ht="14.25" customHeight="1" spans="1:38">
+      <c r="A36" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="33"/>
-      <c r="AB23" s="33"/>
-      <c r="AC23" s="33"/>
-      <c r="AD23" s="33"/>
-      <c r="AE23" s="33"/>
-      <c r="AF23" s="33"/>
-      <c r="AG23" s="33"/>
-      <c r="AH23" s="33"/>
-      <c r="AI23" s="33"/>
-      <c r="AJ23" s="33"/>
-      <c r="AK23" s="33"/>
-      <c r="AL23" s="33"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1" spans="1:38">
-      <c r="A24" s="40" t="s">
+      <c r="B36" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="39"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="39"/>
+      <c r="W36" s="39"/>
+      <c r="X36" s="39"/>
+      <c r="Y36" s="39"/>
+      <c r="Z36" s="39"/>
+      <c r="AA36" s="39"/>
+      <c r="AB36" s="39"/>
+      <c r="AC36" s="39"/>
+      <c r="AD36" s="39"/>
+      <c r="AE36" s="39"/>
+      <c r="AF36" s="39"/>
+      <c r="AG36" s="39"/>
+      <c r="AH36" s="39"/>
+      <c r="AI36" s="39"/>
+      <c r="AJ36" s="39"/>
+      <c r="AK36" s="39"/>
+      <c r="AL36" s="39"/>
+    </row>
+    <row r="37" ht="14.25" customHeight="1" spans="1:38">
+      <c r="A37" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33" t="s">
+      <c r="B37" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="33"/>
-      <c r="AB24" s="33"/>
-      <c r="AC24" s="33"/>
-      <c r="AD24" s="33"/>
-      <c r="AE24" s="33"/>
-      <c r="AF24" s="33"/>
-      <c r="AG24" s="33"/>
-      <c r="AH24" s="33"/>
-      <c r="AI24" s="33"/>
-      <c r="AJ24" s="33"/>
-      <c r="AK24" s="33"/>
-      <c r="AL24" s="33"/>
-    </row>
-    <row r="25" ht="14.25" customHeight="1" spans="1:38">
-      <c r="A25" s="40" t="s">
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="39"/>
+      <c r="S37" s="39"/>
+      <c r="T37" s="39"/>
+      <c r="U37" s="39"/>
+      <c r="V37" s="39"/>
+      <c r="W37" s="39"/>
+      <c r="X37" s="39"/>
+      <c r="Y37" s="39"/>
+      <c r="Z37" s="39"/>
+      <c r="AA37" s="39"/>
+      <c r="AB37" s="39"/>
+      <c r="AC37" s="39"/>
+      <c r="AD37" s="39"/>
+      <c r="AE37" s="39"/>
+      <c r="AF37" s="39"/>
+      <c r="AG37" s="39"/>
+      <c r="AH37" s="39"/>
+      <c r="AI37" s="39"/>
+      <c r="AJ37" s="39"/>
+      <c r="AK37" s="39"/>
+      <c r="AL37" s="39"/>
+    </row>
+    <row r="38" ht="14.25" customHeight="1" spans="1:38">
+      <c r="A38" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33" t="s">
+      <c r="B38" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA25" s="33"/>
-      <c r="AB25" s="33"/>
-      <c r="AC25" s="33"/>
-      <c r="AD25" s="33"/>
-      <c r="AE25" s="33"/>
-      <c r="AF25" s="33"/>
-      <c r="AG25" s="33"/>
-      <c r="AH25" s="33"/>
-      <c r="AI25" s="33"/>
-      <c r="AJ25" s="33"/>
-      <c r="AK25" s="33"/>
-      <c r="AL25" s="33"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="1:38">
-      <c r="A26" s="40" t="s">
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="39"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="39"/>
+      <c r="U38" s="39"/>
+      <c r="V38" s="39"/>
+      <c r="W38" s="39"/>
+      <c r="X38" s="39"/>
+      <c r="Y38" s="39"/>
+      <c r="Z38" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA38" s="39"/>
+      <c r="AB38" s="39"/>
+      <c r="AC38" s="39"/>
+      <c r="AD38" s="39"/>
+      <c r="AE38" s="39"/>
+      <c r="AF38" s="39"/>
+      <c r="AG38" s="39"/>
+      <c r="AH38" s="39"/>
+      <c r="AI38" s="39"/>
+      <c r="AJ38" s="39"/>
+      <c r="AK38" s="39"/>
+      <c r="AL38" s="39"/>
+    </row>
+    <row r="39" ht="14.25" customHeight="1" spans="1:38">
+      <c r="A39" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33" t="s">
+      <c r="B39" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="33"/>
-      <c r="AC26" s="33"/>
-      <c r="AD26" s="33"/>
-      <c r="AE26" s="33"/>
-      <c r="AF26" s="33"/>
-      <c r="AG26" s="33"/>
-      <c r="AH26" s="33"/>
-      <c r="AI26" s="33"/>
-      <c r="AJ26" s="33"/>
-      <c r="AK26" s="33"/>
-      <c r="AL26" s="33"/>
-    </row>
-    <row r="27" ht="14.25" customHeight="1" spans="1:38">
-      <c r="A27" s="40" t="s">
+      <c r="N39" s="39"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="39"/>
+      <c r="R39" s="39"/>
+      <c r="S39" s="39"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="39"/>
+      <c r="V39" s="39"/>
+      <c r="W39" s="39"/>
+      <c r="X39" s="39"/>
+      <c r="Y39" s="39"/>
+      <c r="Z39" s="39"/>
+      <c r="AA39" s="39"/>
+      <c r="AB39" s="39"/>
+      <c r="AC39" s="39"/>
+      <c r="AD39" s="39"/>
+      <c r="AE39" s="39"/>
+      <c r="AF39" s="39"/>
+      <c r="AG39" s="39"/>
+      <c r="AH39" s="39"/>
+      <c r="AI39" s="39"/>
+      <c r="AJ39" s="39"/>
+      <c r="AK39" s="39"/>
+      <c r="AL39" s="39"/>
+    </row>
+    <row r="40" ht="14.25" customHeight="1" spans="1:38">
+      <c r="A40" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="33"/>
-      <c r="AA27" s="33"/>
-      <c r="AB27" s="33"/>
-      <c r="AC27" s="33"/>
-      <c r="AD27" s="33"/>
-      <c r="AE27" s="33"/>
-      <c r="AF27" s="33"/>
-      <c r="AG27" s="33"/>
-      <c r="AH27" s="33"/>
-      <c r="AI27" s="33"/>
-      <c r="AJ27" s="33"/>
-      <c r="AK27" s="33"/>
-      <c r="AL27" s="33"/>
-    </row>
-    <row r="28" ht="14.25" customHeight="1" spans="1:38">
-      <c r="A28" s="40" t="s">
+      <c r="B40" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="39"/>
+      <c r="R40" s="39"/>
+      <c r="S40" s="39"/>
+      <c r="T40" s="39"/>
+      <c r="U40" s="39"/>
+      <c r="V40" s="39"/>
+      <c r="W40" s="39"/>
+      <c r="X40" s="39"/>
+      <c r="Y40" s="39"/>
+      <c r="Z40" s="39"/>
+      <c r="AA40" s="39"/>
+      <c r="AB40" s="39"/>
+      <c r="AC40" s="39"/>
+      <c r="AD40" s="39"/>
+      <c r="AE40" s="39"/>
+      <c r="AF40" s="39"/>
+      <c r="AG40" s="39"/>
+      <c r="AH40" s="39"/>
+      <c r="AI40" s="39"/>
+      <c r="AJ40" s="39"/>
+      <c r="AK40" s="39"/>
+      <c r="AL40" s="39"/>
+    </row>
+    <row r="41" ht="14.25" customHeight="1" spans="1:38">
+      <c r="A41" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA28" s="33"/>
-      <c r="AB28" s="33"/>
-      <c r="AC28" s="33"/>
-      <c r="AD28" s="33"/>
-      <c r="AE28" s="33"/>
-      <c r="AF28" s="33"/>
-      <c r="AG28" s="33"/>
-      <c r="AH28" s="33"/>
-      <c r="AI28" s="33"/>
-      <c r="AJ28" s="33"/>
-      <c r="AK28" s="33"/>
-      <c r="AL28" s="33"/>
-    </row>
-    <row r="29" ht="14.25" customHeight="1" spans="1:38">
-      <c r="A29" s="40" t="s">
+      <c r="B41" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="39"/>
+      <c r="S41" s="39"/>
+      <c r="T41" s="39"/>
+      <c r="U41" s="39"/>
+      <c r="V41" s="39"/>
+      <c r="W41" s="39"/>
+      <c r="X41" s="39"/>
+      <c r="Y41" s="39"/>
+      <c r="Z41" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA41" s="39"/>
+      <c r="AB41" s="39"/>
+      <c r="AC41" s="39"/>
+      <c r="AD41" s="39"/>
+      <c r="AE41" s="39"/>
+      <c r="AF41" s="39"/>
+      <c r="AG41" s="39"/>
+      <c r="AH41" s="39"/>
+      <c r="AI41" s="39"/>
+      <c r="AJ41" s="39"/>
+      <c r="AK41" s="39"/>
+      <c r="AL41" s="39"/>
+    </row>
+    <row r="42" ht="14.25" customHeight="1" spans="1:38">
+      <c r="A42" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="33"/>
-      <c r="AA29" s="33"/>
-      <c r="AB29" s="33"/>
-      <c r="AC29" s="33"/>
-      <c r="AD29" s="33"/>
-      <c r="AE29" s="33"/>
-      <c r="AF29" s="33"/>
-      <c r="AG29" s="33"/>
-      <c r="AH29" s="33"/>
-      <c r="AI29" s="33"/>
-      <c r="AJ29" s="33"/>
-      <c r="AK29" s="33"/>
-      <c r="AL29" s="33"/>
-    </row>
-    <row r="30" ht="14.25" customHeight="1" spans="1:38">
-      <c r="A30" s="40" t="s">
+      <c r="B42" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q42" s="39"/>
+      <c r="R42" s="39"/>
+      <c r="S42" s="39"/>
+      <c r="T42" s="39"/>
+      <c r="U42" s="39"/>
+      <c r="V42" s="39"/>
+      <c r="W42" s="39"/>
+      <c r="X42" s="39"/>
+      <c r="Y42" s="39"/>
+      <c r="Z42" s="39"/>
+      <c r="AA42" s="39"/>
+      <c r="AB42" s="39"/>
+      <c r="AC42" s="39"/>
+      <c r="AD42" s="39"/>
+      <c r="AE42" s="39"/>
+      <c r="AF42" s="39"/>
+      <c r="AG42" s="39"/>
+      <c r="AH42" s="39"/>
+      <c r="AI42" s="39"/>
+      <c r="AJ42" s="39"/>
+      <c r="AK42" s="39"/>
+      <c r="AL42" s="39"/>
+    </row>
+    <row r="43" ht="14.25" customHeight="1" spans="1:38">
+      <c r="A43" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="33"/>
-      <c r="W30" s="33"/>
-      <c r="X30" s="33"/>
-      <c r="Y30" s="33"/>
-      <c r="Z30" s="33"/>
-      <c r="AA30" s="33"/>
-      <c r="AB30" s="33"/>
-      <c r="AC30" s="33"/>
-      <c r="AD30" s="33"/>
-      <c r="AE30" s="33"/>
-      <c r="AF30" s="33"/>
-      <c r="AG30" s="33"/>
-      <c r="AH30" s="33"/>
-      <c r="AI30" s="33"/>
-      <c r="AJ30" s="33"/>
-      <c r="AK30" s="33"/>
-      <c r="AL30" s="33"/>
-    </row>
-    <row r="31" ht="14.25" customHeight="1" spans="1:38">
-      <c r="A31" s="40" t="s">
+      <c r="B43" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="39"/>
+      <c r="S43" s="39"/>
+      <c r="T43" s="39"/>
+      <c r="U43" s="39"/>
+      <c r="V43" s="39"/>
+      <c r="W43" s="39"/>
+      <c r="X43" s="39"/>
+      <c r="Y43" s="39"/>
+      <c r="Z43" s="39"/>
+      <c r="AA43" s="39"/>
+      <c r="AB43" s="39"/>
+      <c r="AC43" s="39"/>
+      <c r="AD43" s="39"/>
+      <c r="AE43" s="39"/>
+      <c r="AF43" s="39"/>
+      <c r="AG43" s="39"/>
+      <c r="AH43" s="39"/>
+      <c r="AI43" s="39"/>
+      <c r="AJ43" s="39"/>
+      <c r="AK43" s="39"/>
+      <c r="AL43" s="39"/>
+    </row>
+    <row r="44" ht="14.25" customHeight="1" spans="1:38">
+      <c r="A44" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="33"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="33"/>
-      <c r="Z31" s="33"/>
-      <c r="AA31" s="33"/>
-      <c r="AB31" s="33"/>
-      <c r="AC31" s="33"/>
-      <c r="AD31" s="33"/>
-      <c r="AE31" s="33"/>
-      <c r="AF31" s="33"/>
-      <c r="AG31" s="33"/>
-      <c r="AH31" s="33"/>
-      <c r="AI31" s="33"/>
-      <c r="AJ31" s="33"/>
-      <c r="AK31" s="33"/>
-      <c r="AL31" s="33"/>
-    </row>
-    <row r="32" ht="14.25" customHeight="1" spans="1:38">
-      <c r="A32" s="40" t="s">
+      <c r="B44" s="46"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="39"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="39"/>
+      <c r="R44" s="39"/>
+      <c r="S44" s="39"/>
+      <c r="T44" s="39"/>
+      <c r="U44" s="39"/>
+      <c r="V44" s="39"/>
+      <c r="W44" s="39"/>
+      <c r="X44" s="39"/>
+      <c r="Y44" s="39"/>
+      <c r="Z44" s="39"/>
+      <c r="AA44" s="39"/>
+      <c r="AB44" s="39"/>
+      <c r="AC44" s="39"/>
+      <c r="AD44" s="39"/>
+      <c r="AE44" s="39"/>
+      <c r="AF44" s="39"/>
+      <c r="AG44" s="39"/>
+      <c r="AH44" s="39"/>
+      <c r="AI44" s="39"/>
+      <c r="AJ44" s="39"/>
+      <c r="AK44" s="39"/>
+      <c r="AL44" s="39"/>
+    </row>
+    <row r="45" ht="14.25" customHeight="1" spans="1:38">
+      <c r="A45" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="33"/>
-      <c r="U32" s="33"/>
-      <c r="V32" s="33"/>
-      <c r="W32" s="33"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="33"/>
-      <c r="Z32" s="33"/>
-      <c r="AA32" s="33"/>
-      <c r="AB32" s="33"/>
-      <c r="AC32" s="33"/>
-      <c r="AD32" s="33"/>
-      <c r="AE32" s="33"/>
-      <c r="AF32" s="33"/>
-      <c r="AG32" s="33"/>
-      <c r="AH32" s="33"/>
-      <c r="AI32" s="33"/>
-      <c r="AJ32" s="33"/>
-      <c r="AK32" s="33"/>
-      <c r="AL32" s="33"/>
-    </row>
-    <row r="33" ht="14.25" customHeight="1" spans="1:38">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="24"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="23"/>
-      <c r="X33" s="33"/>
-      <c r="Y33" s="39"/>
-      <c r="Z33" s="39"/>
-      <c r="AA33" s="39"/>
-      <c r="AB33" s="39"/>
-      <c r="AC33" s="39"/>
-      <c r="AD33" s="39"/>
-      <c r="AE33" s="39"/>
-      <c r="AF33" s="39"/>
-      <c r="AG33" s="39"/>
-      <c r="AH33" s="39"/>
-      <c r="AI33" s="39"/>
-      <c r="AJ33" s="39"/>
-      <c r="AK33" s="39"/>
-      <c r="AL33" s="39"/>
-    </row>
-    <row r="34" ht="14.25" customHeight="1" spans="1:38">
-      <c r="A34" s="40" t="s">
+      <c r="B45" s="46"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="39"/>
+      <c r="O45" s="39"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="39"/>
+      <c r="R45" s="39"/>
+      <c r="S45" s="50"/>
+      <c r="T45" s="39"/>
+      <c r="U45" s="39"/>
+      <c r="V45" s="39"/>
+      <c r="W45" s="39"/>
+      <c r="X45" s="39"/>
+      <c r="Y45" s="39"/>
+      <c r="Z45" s="39"/>
+      <c r="AA45" s="39"/>
+      <c r="AB45" s="39"/>
+      <c r="AC45" s="39"/>
+      <c r="AD45" s="39"/>
+      <c r="AE45" s="39"/>
+      <c r="AF45" s="39"/>
+      <c r="AG45" s="39"/>
+      <c r="AH45" s="39"/>
+      <c r="AI45" s="39"/>
+      <c r="AJ45" s="39"/>
+      <c r="AK45" s="39"/>
+      <c r="AL45" s="39"/>
+    </row>
+    <row r="46" ht="14.25" customHeight="1" spans="1:38">
+      <c r="A46" s="45"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="45"/>
+      <c r="L46" s="45"/>
+      <c r="M46" s="45"/>
+      <c r="N46" s="45"/>
+      <c r="O46" s="45"/>
+      <c r="P46" s="45"/>
+      <c r="Q46" s="45"/>
+      <c r="R46" s="45"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="29"/>
+      <c r="U46" s="26"/>
+      <c r="V46" s="27"/>
+      <c r="W46" s="28"/>
+      <c r="X46" s="39"/>
+      <c r="Y46" s="45"/>
+      <c r="Z46" s="45"/>
+      <c r="AA46" s="45"/>
+      <c r="AB46" s="45"/>
+      <c r="AC46" s="45"/>
+      <c r="AD46" s="45"/>
+      <c r="AE46" s="45"/>
+      <c r="AF46" s="45"/>
+      <c r="AG46" s="45"/>
+      <c r="AH46" s="45"/>
+      <c r="AI46" s="45"/>
+      <c r="AJ46" s="45"/>
+      <c r="AK46" s="45"/>
+      <c r="AL46" s="45"/>
+    </row>
+    <row r="47" ht="14.25" customHeight="1" spans="1:38">
+      <c r="A47" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="33"/>
-      <c r="S34" s="33"/>
-      <c r="T34" s="33"/>
-      <c r="U34" s="33"/>
-      <c r="V34" s="33"/>
-      <c r="W34" s="33"/>
-      <c r="X34" s="33"/>
-      <c r="Y34" s="33"/>
-      <c r="Z34" s="33"/>
-      <c r="AA34" s="33"/>
-      <c r="AB34" s="33"/>
-      <c r="AC34" s="33"/>
-      <c r="AD34" s="33"/>
-      <c r="AE34" s="33"/>
-      <c r="AF34" s="33"/>
-      <c r="AG34" s="33"/>
-      <c r="AH34" s="33"/>
-      <c r="AI34" s="33"/>
-      <c r="AJ34" s="33"/>
-      <c r="AK34" s="33"/>
-      <c r="AL34" s="33"/>
-    </row>
-    <row r="35" ht="14.25" customHeight="1" spans="1:38">
-      <c r="A35" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="B35" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33" t="s">
+      <c r="B47" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="M47" s="39"/>
+      <c r="N47" s="39"/>
+      <c r="O47" s="39"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="39"/>
+      <c r="R47" s="39"/>
+      <c r="S47" s="39"/>
+      <c r="T47" s="39"/>
+      <c r="U47" s="39"/>
+      <c r="V47" s="39"/>
+      <c r="W47" s="39"/>
+      <c r="X47" s="39"/>
+      <c r="Y47" s="39"/>
+      <c r="Z47" s="39"/>
+      <c r="AA47" s="39"/>
+      <c r="AB47" s="39"/>
+      <c r="AC47" s="39"/>
+      <c r="AD47" s="39"/>
+      <c r="AE47" s="39"/>
+      <c r="AF47" s="39"/>
+      <c r="AG47" s="39"/>
+      <c r="AH47" s="39"/>
+      <c r="AI47" s="39"/>
+      <c r="AJ47" s="39"/>
+      <c r="AK47" s="39"/>
+      <c r="AL47" s="39"/>
+    </row>
+    <row r="48" ht="14.25" customHeight="1" spans="1:38">
+      <c r="A48" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33"/>
-      <c r="S35" s="33"/>
-      <c r="T35" s="33"/>
-      <c r="U35" s="33"/>
-      <c r="V35" s="33"/>
-      <c r="W35" s="33"/>
-      <c r="X35" s="33"/>
-      <c r="Y35" s="33"/>
-      <c r="Z35" s="33"/>
-      <c r="AA35" s="33"/>
-      <c r="AB35" s="33"/>
-      <c r="AC35" s="33"/>
-      <c r="AD35" s="33"/>
-      <c r="AE35" s="33"/>
-      <c r="AF35" s="33"/>
-      <c r="AG35" s="33"/>
-      <c r="AH35" s="33"/>
-      <c r="AI35" s="33"/>
-      <c r="AJ35" s="33"/>
-      <c r="AK35" s="33"/>
-      <c r="AL35" s="33"/>
-    </row>
-    <row r="36" ht="13.5" customHeight="1" spans="1:38">
-      <c r="A36" s="40" t="s">
+      <c r="M48" s="39"/>
+      <c r="N48" s="39"/>
+      <c r="O48" s="39"/>
+      <c r="P48" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q48" s="39"/>
+      <c r="R48" s="39"/>
+      <c r="S48" s="39"/>
+      <c r="T48" s="39"/>
+      <c r="U48" s="39"/>
+      <c r="V48" s="39"/>
+      <c r="W48" s="39"/>
+      <c r="X48" s="39"/>
+      <c r="Y48" s="39"/>
+      <c r="Z48" s="39"/>
+      <c r="AA48" s="39"/>
+      <c r="AB48" s="39"/>
+      <c r="AC48" s="39"/>
+      <c r="AD48" s="39"/>
+      <c r="AE48" s="39"/>
+      <c r="AF48" s="39"/>
+      <c r="AG48" s="39"/>
+      <c r="AH48" s="39"/>
+      <c r="AI48" s="39"/>
+      <c r="AJ48" s="39"/>
+      <c r="AK48" s="39"/>
+      <c r="AL48" s="39"/>
+    </row>
+    <row r="49" ht="13.5" customHeight="1" spans="1:38">
+      <c r="A49" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="33"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="33"/>
-      <c r="U36" s="33"/>
-      <c r="V36" s="33"/>
-      <c r="W36" s="33"/>
-      <c r="X36" s="33"/>
-      <c r="Y36" s="33"/>
-      <c r="Z36" s="33"/>
-      <c r="AA36" s="33"/>
-      <c r="AB36" s="33"/>
-      <c r="AC36" s="33"/>
-      <c r="AD36" s="33"/>
-      <c r="AE36" s="33"/>
-      <c r="AF36" s="33"/>
-      <c r="AG36" s="33"/>
-      <c r="AH36" s="33"/>
-      <c r="AI36" s="33"/>
-      <c r="AJ36" s="33"/>
-      <c r="AK36" s="33"/>
-      <c r="AL36" s="33"/>
-    </row>
-    <row r="37" ht="14.25" customHeight="1" spans="1:38">
-      <c r="A37" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="B37" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="F37" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="G37" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33" t="s">
+      <c r="B49" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="39"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="39"/>
+      <c r="S49" s="39"/>
+      <c r="T49" s="39"/>
+      <c r="U49" s="39"/>
+      <c r="V49" s="39"/>
+      <c r="W49" s="39"/>
+      <c r="X49" s="39"/>
+      <c r="Y49" s="39"/>
+      <c r="Z49" s="39"/>
+      <c r="AA49" s="39"/>
+      <c r="AB49" s="39"/>
+      <c r="AC49" s="39"/>
+      <c r="AD49" s="39"/>
+      <c r="AE49" s="39"/>
+      <c r="AF49" s="39"/>
+      <c r="AG49" s="39"/>
+      <c r="AH49" s="39"/>
+      <c r="AI49" s="39"/>
+      <c r="AJ49" s="39"/>
+      <c r="AK49" s="39"/>
+      <c r="AL49" s="39"/>
+    </row>
+    <row r="50" ht="14.25" customHeight="1" spans="1:38">
+      <c r="A50" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B50" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="J50" s="39"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="33"/>
-      <c r="S37" s="33"/>
-      <c r="T37" s="33"/>
-      <c r="U37" s="33"/>
-      <c r="V37" s="33"/>
-      <c r="W37" s="33"/>
-      <c r="X37" s="33"/>
-      <c r="Y37" s="33"/>
-      <c r="Z37" s="33"/>
-      <c r="AA37" s="33"/>
-      <c r="AB37" s="33"/>
-      <c r="AC37" s="33"/>
-      <c r="AD37" s="33"/>
-      <c r="AE37" s="33"/>
-      <c r="AF37" s="33"/>
-      <c r="AG37" s="33"/>
-      <c r="AH37" s="33"/>
-      <c r="AI37" s="33"/>
-      <c r="AJ37" s="33"/>
-      <c r="AK37" s="33"/>
-      <c r="AL37" s="33"/>
-    </row>
-    <row r="38" ht="14.25" customHeight="1" spans="1:38">
-      <c r="A38" s="40" t="s">
+      <c r="M50" s="39"/>
+      <c r="N50" s="39"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q50" s="39"/>
+      <c r="R50" s="39"/>
+      <c r="S50" s="39"/>
+      <c r="T50" s="39"/>
+      <c r="U50" s="39"/>
+      <c r="V50" s="39"/>
+      <c r="W50" s="39"/>
+      <c r="X50" s="39"/>
+      <c r="Y50" s="39"/>
+      <c r="Z50" s="39"/>
+      <c r="AA50" s="39"/>
+      <c r="AB50" s="39"/>
+      <c r="AC50" s="39"/>
+      <c r="AD50" s="39"/>
+      <c r="AE50" s="39"/>
+      <c r="AF50" s="39"/>
+      <c r="AG50" s="39"/>
+      <c r="AH50" s="39"/>
+      <c r="AI50" s="39"/>
+      <c r="AJ50" s="39"/>
+      <c r="AK50" s="39"/>
+      <c r="AL50" s="39"/>
+    </row>
+    <row r="51" ht="14.25" customHeight="1" spans="1:38">
+      <c r="A51" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="33"/>
-      <c r="S38" s="33"/>
-      <c r="T38" s="33"/>
-      <c r="U38" s="33"/>
-      <c r="V38" s="33"/>
-      <c r="W38" s="33"/>
-      <c r="X38" s="33"/>
-      <c r="Y38" s="33"/>
-      <c r="Z38" s="33"/>
-      <c r="AA38" s="33"/>
-      <c r="AB38" s="33"/>
-      <c r="AC38" s="33"/>
-      <c r="AD38" s="33"/>
-      <c r="AE38" s="33"/>
-      <c r="AF38" s="33"/>
-      <c r="AG38" s="33"/>
-      <c r="AH38" s="33"/>
-      <c r="AI38" s="33"/>
-      <c r="AJ38" s="33"/>
-      <c r="AK38" s="33"/>
-      <c r="AL38" s="33"/>
-    </row>
-    <row r="39" ht="14.25" customHeight="1" spans="1:38">
-      <c r="A39" s="40" t="s">
+      <c r="B51" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="39"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="39"/>
+      <c r="O51" s="39"/>
+      <c r="P51" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q51" s="39"/>
+      <c r="R51" s="39"/>
+      <c r="S51" s="39"/>
+      <c r="T51" s="39"/>
+      <c r="U51" s="39"/>
+      <c r="V51" s="39"/>
+      <c r="W51" s="39"/>
+      <c r="X51" s="39"/>
+      <c r="Y51" s="39"/>
+      <c r="Z51" s="39"/>
+      <c r="AA51" s="39"/>
+      <c r="AB51" s="39"/>
+      <c r="AC51" s="39"/>
+      <c r="AD51" s="39"/>
+      <c r="AE51" s="39"/>
+      <c r="AF51" s="39"/>
+      <c r="AG51" s="39"/>
+      <c r="AH51" s="39"/>
+      <c r="AI51" s="39"/>
+      <c r="AJ51" s="39"/>
+      <c r="AK51" s="39"/>
+      <c r="AL51" s="39"/>
+    </row>
+    <row r="52" ht="14.25" customHeight="1" spans="1:38">
+      <c r="A52" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="40"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="33"/>
-      <c r="T39" s="33"/>
-      <c r="U39" s="33"/>
-      <c r="V39" s="33"/>
-      <c r="W39" s="33"/>
-      <c r="X39" s="33"/>
-      <c r="Y39" s="33"/>
-      <c r="Z39" s="33"/>
-      <c r="AA39" s="33"/>
-      <c r="AB39" s="33"/>
-      <c r="AC39" s="33"/>
-      <c r="AD39" s="33"/>
-      <c r="AE39" s="33"/>
-      <c r="AF39" s="33"/>
-      <c r="AG39" s="33"/>
-      <c r="AH39" s="33"/>
-      <c r="AI39" s="33"/>
-      <c r="AJ39" s="33"/>
-      <c r="AK39" s="33"/>
-      <c r="AL39" s="33"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="39"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="39"/>
+      <c r="S52" s="39"/>
+      <c r="T52" s="39"/>
+      <c r="U52" s="39"/>
+      <c r="V52" s="39"/>
+      <c r="W52" s="39"/>
+      <c r="X52" s="39"/>
+      <c r="Y52" s="39"/>
+      <c r="Z52" s="39"/>
+      <c r="AA52" s="39"/>
+      <c r="AB52" s="39"/>
+      <c r="AC52" s="39"/>
+      <c r="AD52" s="39"/>
+      <c r="AE52" s="39"/>
+      <c r="AF52" s="39"/>
+      <c r="AG52" s="39"/>
+      <c r="AH52" s="39"/>
+      <c r="AI52" s="39"/>
+      <c r="AJ52" s="39"/>
+      <c r="AK52" s="39"/>
+      <c r="AL52" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -4083,10 +4658,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="$A19:$XFD23"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296296296296" defaultRowHeight="15" customHeight="1"/>
@@ -4105,626 +4680,745 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A1" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="38" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A2" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="33" t="s">
-        <v>133</v>
+      <c r="A2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" s="28"/>
+      <c r="I2" s="39" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A3" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="33" t="s">
-        <v>140</v>
+      <c r="A3" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" s="28"/>
+      <c r="I3" s="39" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="33" t="s">
-        <v>147</v>
+      <c r="B4" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="H4" s="28"/>
+      <c r="I4" s="39" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="33" t="s">
-        <v>154</v>
+      <c r="B5" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="H5" s="28"/>
+      <c r="I5" s="39" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:9">
       <c r="A6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="33" t="s">
-        <v>162</v>
+        <v>178</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="39" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1" spans="1:9">
       <c r="A7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="33" t="s">
-        <v>169</v>
+        <v>178</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="39" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:9">
       <c r="A8" t="s">
-        <v>155</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="33" t="s">
-        <v>175</v>
+        <v>178</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="39" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="1:9">
       <c r="A9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="D9" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="E9" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="33" t="s">
-        <v>182</v>
+      <c r="B9" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="39" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:9">
       <c r="A10" t="s">
-        <v>155</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="33" t="s">
-        <v>188</v>
+        <v>178</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="39" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:9">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="C11" t="s">
-        <v>190</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="33" t="s">
-        <v>190</v>
+        <v>213</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="39" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:9">
       <c r="A12" t="s">
-        <v>195</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="33" t="s">
-        <v>202</v>
+        <v>218</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="H12" s="28"/>
+      <c r="I12" s="39" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1" spans="1:9">
       <c r="A13" t="s">
-        <v>195</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="33" t="s">
-        <v>209</v>
+        <v>218</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="H13" s="28"/>
+      <c r="I13" s="39" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A14" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="33" t="s">
-        <v>133</v>
+      <c r="A14" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="H14" s="28"/>
+      <c r="I14" s="39" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A15" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="33" t="s">
-        <v>217</v>
+      <c r="A15" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="H15" s="28"/>
+      <c r="I15" s="39" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1" spans="1:9">
       <c r="A16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="33" t="s">
-        <v>224</v>
+        <v>139</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="H16" s="28"/>
+      <c r="I16" s="39" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1" spans="1:9">
       <c r="A17" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="33" t="s">
-        <v>231</v>
+        <v>139</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="H17" s="28"/>
+      <c r="I17" s="39" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1" spans="1:9">
       <c r="A18" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="33" t="s">
-        <v>237</v>
+        <v>139</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="39" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" ht="14.25" customHeight="1" spans="1:9">
       <c r="A19" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="H19" s="30"/>
-      <c r="I19" s="34" t="s">
-        <v>244</v>
+      <c r="B19" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="H19" s="35"/>
+      <c r="I19" s="40" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="20" s="3" customFormat="1" ht="14.25" customHeight="1" spans="1:9">
       <c r="A20" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="H20" s="30"/>
-      <c r="I20" s="34" t="s">
-        <v>244</v>
+      <c r="B20" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="H20" s="35"/>
+      <c r="I20" s="40" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="14.25" customHeight="1" spans="1:9">
       <c r="A21" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="G21" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="H21" s="30"/>
-      <c r="I21" s="34" t="s">
-        <v>244</v>
+      <c r="B21" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="H21" s="35"/>
+      <c r="I21" s="40" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="22" s="3" customFormat="1" ht="14.25" customHeight="1" spans="1:9">
       <c r="A22" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="G22" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="H22" s="30"/>
-      <c r="I22" s="34" t="s">
-        <v>255</v>
+      <c r="B22" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="H22" s="35"/>
+      <c r="I22" s="40" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="23" s="3" customFormat="1" ht="14.25" customHeight="1" spans="1:9">
       <c r="A23" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="G23" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="H23" s="30"/>
-      <c r="I23" s="34" t="s">
-        <v>262</v>
+      <c r="B23" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="H23" s="35"/>
+      <c r="I23" s="40" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="25" s="4" customFormat="1" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="40"/>
+    </row>
+    <row r="26" s="4" customFormat="1" spans="1:9">
+      <c r="A26" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="H26" s="35"/>
+      <c r="I26" s="40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" s="4" customFormat="1" spans="1:9">
+      <c r="A27" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="H27" s="35"/>
+      <c r="I27" s="40" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" s="4" customFormat="1" spans="1:9">
+      <c r="A28" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="H28" s="35"/>
+      <c r="I28" s="40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" s="4" customFormat="1" spans="1:9">
+      <c r="A29" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="F29" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="H29" s="35"/>
+      <c r="I29" s="40" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4759,43 +5453,43 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="C2" s="2" t="str">
         <f ca="1">TEXT(NOW(),"yyyy-mm-dd_HH-MM")</f>
-        <v>2024-04-17 12-46</v>
+        <v>2024-05-02 10-42</v>
       </c>
       <c r="E2" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="G2" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1"/>
